--- a/output/StructureDefinition-tictf-subtask.xlsx
+++ b/output/StructureDefinition-tictf-subtask.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T10:56:01-03:00</t>
+    <t>2025-06-21T18:29:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -786,7 +786,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFPatient)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-tictf-subtask.xlsx
+++ b/output/StructureDefinition-tictf-subtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1282,7 +1282,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>http://racsel.org/TIC-TSTF/ValueSet/TipoTaskVS</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1331,10 +1331,11 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
-  </si>
-  <si>
     <t>Task.output.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFObsRespuesta|DocumentReference|http://racsel.org/TIC-TSTF/StructureDefinition/TICTFDocRta)
+</t>
   </si>
   <si>
     <t>Result of output</t>
@@ -1672,17 +1673,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.6640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="130.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1691,26 +1692,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="164.3359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="114.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="53.83984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="105.4140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.28515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.5390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="22.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7320,7 +7321,7 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
@@ -7366,13 +7367,11 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -8004,7 +8003,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
@@ -8048,13 +8047,11 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8101,10 +8098,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8127,7 +8124,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>424</v>
@@ -8186,7 +8183,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>

--- a/output/StructureDefinition-tictf-subtask.xlsx
+++ b/output/StructureDefinition-tictf-subtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -760,7 +760,7 @@
     <t>Task.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|ImagingStudy|CarePlan)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1039,10 +1039,6 @@
     <t>Task.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
     <t>A resource reference indicating why this task needs to be performed.</t>
   </si>
   <si>
@@ -1242,7 +1238,7 @@
 </t>
   </si>
   <si>
-    <t>Información adicional proporcionada (ej. notas o datos complementarios)</t>
+    <t>Información adicional solicitada (ej. notas o datos complementarios)</t>
   </si>
   <si>
     <t>Additional information that may be needed in the execution of the task.</t>
@@ -1282,7 +1278,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>http://racsel.org/TIC-TSTF/ValueSet/TipoTaskVS</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1301,7 +1297,7 @@
     <t>Task.output</t>
   </si>
   <si>
-    <t>Respuesta de la SUBtarea, contiene la respuesta final a la interconsulta</t>
+    <t>Respuesta de la SUBtarea, contiene la respuesta al requerimiento de información adicional</t>
   </si>
   <si>
     <t>Outputs produced by the Task.</t>
@@ -1329,9 +1325,6 @@
   </si>
   <si>
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
-  </si>
-  <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -1672,17 +1665,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.6640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1691,26 +1684,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="164.3359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="116.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.66796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.16015625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="53.83984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="105.4140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="96.3515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="23.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5623,16 +5616,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5697,10 +5690,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>326</v>
@@ -5711,10 +5704,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5737,13 +5730,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5794,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5809,24 +5802,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5849,13 +5842,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5906,7 +5899,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5921,10 +5914,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5935,14 +5928,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5961,16 +5954,16 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6020,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6035,10 +6028,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6049,10 +6042,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6075,17 +6068,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6127,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6152,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6163,10 +6156,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6192,10 +6185,10 @@
         <v>235</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6246,25 +6239,25 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6275,10 +6268,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6307,7 +6300,7 @@
         <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>136</v>
@@ -6360,7 +6353,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6378,7 +6371,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6389,14 +6382,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6418,10 +6411,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>136</v>
@@ -6476,7 +6469,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6505,10 +6498,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6531,17 +6524,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6590,7 +6583,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6608,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6619,10 +6612,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6648,16 +6641,16 @@
         <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6706,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6724,7 +6717,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6735,10 +6728,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6761,13 +6754,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6818,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6836,7 +6829,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6847,18 +6840,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6873,17 +6866,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6925,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6950,7 +6943,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6961,10 +6954,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6990,10 +6983,10 @@
         <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7044,25 +7037,25 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7073,10 +7066,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7105,7 +7098,7 @@
         <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>136</v>
@@ -7158,7 +7151,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7176,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7187,14 +7180,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7216,10 +7209,10 @@
         <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>136</v>
@@ -7274,7 +7267,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7303,14 +7296,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7320,7 +7313,7 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
@@ -7332,16 +7325,16 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7366,13 +7359,11 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7390,7 +7381,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7408,7 +7399,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7419,10 +7410,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7445,13 +7436,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7502,7 +7493,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
@@ -7520,7 +7511,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7531,10 +7522,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7557,17 +7548,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7634,7 +7625,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7645,10 +7636,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7674,10 +7665,10 @@
         <v>235</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7728,25 +7719,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7757,10 +7748,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7789,7 +7780,7 @@
         <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>136</v>
@@ -7842,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7860,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7871,14 +7862,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7900,10 +7891,10 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>136</v>
@@ -7958,7 +7949,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7987,14 +7978,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8004,7 +7995,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
@@ -8016,14 +8007,14 @@
         <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8048,13 +8039,11 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8072,7 +8061,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8090,7 +8079,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8101,10 +8090,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8127,17 +8116,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8186,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8204,7 +8193,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
